--- a/Qnet_ToDo_Liste.xlsx
+++ b/Qnet_ToDo_Liste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdc/Library/Mobile Documents/com~apple~CloudDocs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdc/GitHub/Migration-ToDo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="780" windowWidth="25600" windowHeight="14140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SMS" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="Übersicht" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MSE!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SFE!$A$1:$G$333</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">XFG!$A$1:$G$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">XFG!$A$1:$H$65</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="839">
   <si>
     <t>SMS5num</t>
   </si>
@@ -2538,6 +2539,21 @@
   </si>
   <si>
     <t>Kommentare</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Resposible for migration</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -12924,10 +12940,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12937,7 +12953,7 @@
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>830</v>
       </c>
@@ -12959,8 +12975,11 @@
       <c r="G1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>713</v>
       </c>
@@ -12973,8 +12992,11 @@
       <c r="F2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>714</v>
       </c>
@@ -12987,104 +13009,143 @@
       <c r="F3" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>715</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>716</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>717</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>718</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>719</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>720</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>721</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>722</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>723</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>724</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>725</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>726</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>727</v>
       </c>
@@ -13097,8 +13158,11 @@
       <c r="F16" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>728</v>
       </c>
@@ -13111,8 +13175,11 @@
       <c r="F17" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>729</v>
       </c>
@@ -13125,8 +13192,11 @@
       <c r="F18" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>730</v>
       </c>
@@ -13139,8 +13209,11 @@
       <c r="F19" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>731</v>
       </c>
@@ -13153,8 +13226,11 @@
       <c r="F20" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>732</v>
       </c>
@@ -13167,8 +13243,11 @@
       <c r="F21" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>733</v>
       </c>
@@ -13181,16 +13260,22 @@
       <c r="F22" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>734</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>735</v>
       </c>
@@ -13203,8 +13288,11 @@
       <c r="F24" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>736</v>
       </c>
@@ -13217,88 +13305,121 @@
       <c r="F25" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>737</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>738</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>739</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>740</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>741</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>742</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>743</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>744</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>745</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>746</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>747</v>
       </c>
@@ -13306,7 +13427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>748</v>
       </c>
@@ -13314,7 +13435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>749</v>
       </c>
@@ -13322,7 +13443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>749</v>
       </c>
@@ -13330,7 +13451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>750</v>
       </c>
@@ -13338,7 +13459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>751</v>
       </c>
@@ -13346,7 +13467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>752</v>
       </c>
@@ -13354,7 +13475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>753</v>
       </c>
@@ -13362,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>754</v>
       </c>
@@ -13370,7 +13491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>755</v>
       </c>
@@ -13378,7 +13499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>756</v>
       </c>
@@ -13386,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>757</v>
       </c>
@@ -13394,7 +13515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>758</v>
       </c>
@@ -13539,22 +13660,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G65"/>
+  <autoFilter ref="A1:H65"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>830</v>
       </c>
@@ -13576,88 +13698,151 @@
       <c r="G1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>776</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>827</v>
+      </c>
+      <c r="H2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>777</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>778</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>827</v>
+      </c>
+      <c r="H4" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>779</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>827</v>
+      </c>
+      <c r="H5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>780</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H6" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>781</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>827</v>
+      </c>
+      <c r="H7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>782</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>827</v>
+      </c>
+      <c r="H8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>783</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>827</v>
+      </c>
+      <c r="H9" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>784</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>827</v>
+      </c>
+      <c r="H10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>785</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>827</v>
+      </c>
+      <c r="H11" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>786</v>
       </c>
@@ -13665,7 +13850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>787</v>
       </c>
@@ -13673,7 +13858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>788</v>
       </c>
@@ -13681,7 +13866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>789</v>
       </c>
@@ -13689,7 +13874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>790</v>
       </c>
@@ -13850,6 +14035,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Qnet_ToDo_Liste.xlsx
+++ b/Qnet_ToDo_Liste.xlsx
@@ -2553,7 +2553,7 @@
     <t>NL</t>
   </si>
   <si>
-    <t>AM</t>
+    <t>AMZ</t>
   </si>
 </sst>
 </file>
@@ -13671,7 +13671,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
